--- a/March 2018/Saturday-Sunday-Weekday/Validation/Input_March_2018.xlsx
+++ b/March 2018/Saturday-Sunday-Weekday/Validation/Input_March_2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2EC6D4-014A-4E20-8F14-D99C07D0A810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647DB5B-29BF-414E-8555-56AE02EB4348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="102">
   <si>
     <t>Inflow</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>Total Energy</t>
+  </si>
+  <si>
+    <t>weekend model</t>
+  </si>
+  <si>
+    <t>Steady</t>
+  </si>
+  <si>
+    <t>Weekend</t>
   </si>
 </sst>
 </file>
@@ -25003,15 +25012,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E37F9-9862-4A96-9B4A-29D9B5F2E841}">
-  <dimension ref="E4:U34"/>
+  <dimension ref="E4:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="4" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -25032,7 +25041,7 @@
         <v>13663.520352</v>
       </c>
     </row>
-    <row r="5" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -25057,7 +25066,7 @@
         <v>30329.806848</v>
       </c>
     </row>
-    <row r="6" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -25078,7 +25087,7 @@
         <v>17079.400439999998</v>
       </c>
     </row>
-    <row r="7" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -25099,7 +25108,7 @@
         <v>40829.514320000002</v>
       </c>
     </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -25120,7 +25129,7 @@
         <v>74588.105680000008</v>
       </c>
     </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -25141,7 +25150,7 @@
         <v>198935.52764799999</v>
       </c>
     </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
         <v>7</v>
       </c>
@@ -25149,7 +25158,7 @@
         <v>12755.452499999999</v>
       </c>
     </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -25157,7 +25166,7 @@
         <v>12450.63675</v>
       </c>
     </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -25177,7 +25186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
         <v>10</v>
       </c>
@@ -25201,8 +25210,14 @@
         <f>M13*16*0.03715*5</f>
         <v>40829.52175</v>
       </c>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V13" t="s">
+        <v>100</v>
+      </c>
+      <c r="W13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
         <v>11</v>
       </c>
@@ -25226,8 +25241,17 @@
         <f>M14*16*0.03715*4</f>
         <v>30329.817250000004</v>
       </c>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="U14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14">
+        <v>101902.26428269201</v>
+      </c>
+      <c r="W14">
+        <v>273523.56192867202</v>
+      </c>
+    </row>
+    <row r="15" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
         <v>12</v>
       </c>
@@ -25252,12 +25276,19 @@
         <v>198935.46375</v>
       </c>
     </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16">
         <v>11329.07825</v>
+      </c>
+      <c r="U16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V16">
+        <f>V14+W14</f>
+        <v>375425.82621136401</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.55000000000000004">
